--- a/520/520.xlsx
+++ b/520/520.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="540" windowWidth="25600" windowHeight="15460" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="为爱精选" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="60">
   <si>
     <t>商品id</t>
     <rPh sb="0" eb="1">
@@ -329,6 +329,13 @@
   </si>
   <si>
     <t>adjjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <rPh sb="0" eb="1">
+      <t>dian pu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -745,7 +752,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -822,8 +835,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -845,8 +861,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -868,8 +887,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -891,8 +913,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -912,6 +937,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -931,10 +959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -947,7 +975,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1000,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -998,8 +1029,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -1024,8 +1058,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -1047,8 +1084,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -1070,8 +1110,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -1093,8 +1136,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -1114,6 +1160,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -1133,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1149,7 +1198,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1223,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -1200,8 +1252,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -1226,8 +1281,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -1249,8 +1307,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -1272,8 +1333,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -1295,8 +1359,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -1316,6 +1383,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -1335,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1421,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1376,8 +1446,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -1402,8 +1475,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -1428,8 +1504,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -1451,8 +1530,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -1474,8 +1556,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -1497,8 +1582,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -1518,6 +1606,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -1537,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1553,7 +1644,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1578,8 +1669,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -1604,8 +1698,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -1630,8 +1727,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -1653,8 +1753,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -1676,8 +1779,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -1699,8 +1805,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -1720,6 +1829,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -1739,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1755,7 +1867,7 @@
     <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1780,8 +1892,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>13313</v>
       </c>
@@ -1806,8 +1921,11 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>13313</v>
       </c>
@@ -1832,8 +1950,11 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>13313</v>
       </c>
@@ -1855,8 +1976,11 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>13313</v>
       </c>
@@ -1878,8 +2002,11 @@
       <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13313</v>
       </c>
@@ -1901,8 +2028,11 @@
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>13313</v>
       </c>
@@ -1922,6 +2052,9 @@
         <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>6</v>
       </c>
     </row>
@@ -1943,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
